--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -111,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -121,14 +160,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,104 +182,104 @@
   <dimension ref="A1:B12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.48828125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.85546875" customWidth="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0">
-        <v>1.7956589001137047</v>
+        <v>2.532579752877512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0">
-        <v>3.5153508206971478</v>
+        <v>3.6285202334170248</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0">
-        <v>0.016990133893311801</v>
+        <v>0.032313429948020736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0096723557275902542</v>
+        <v>0.011608327838208395</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0021380790042832046</v>
+        <v>0.0026496890893785382</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.013970328954909905</v>
+        <v>-0.032313429948020778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0">
-        <v>0.050258414205965884</v>
+        <v>0.083734816655494537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0">
-        <v>14.954999863551594</v>
+        <v>106.99603155650857</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0">
-        <v>34.632159836368274</v>
+        <v>182.59958917768233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0">
-        <v>49.587159699919866</v>
+        <v>289.5956207341909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0">
-        <v>-410.08935310712508</v>
+        <v>-1109.8625256436046</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -150,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -161,15 +239,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,98 +270,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0">
-        <v>2.532579752877512</v>
+        <v>3.2362949419651139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B3" s="0">
-        <v>3.6285202334170248</v>
+        <v>2.9570896980973465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B4" s="0">
-        <v>0.032313429948020736</v>
+        <v>0.1482498441928094</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B5" s="0">
-        <v>0.011608327838208395</v>
+        <v>0.022401217368449453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0026496890893785382</v>
+        <v>0.0041659189367960038</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.032313429948020778</v>
+        <v>-0.067057604630576972</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B8" s="0">
-        <v>0.083734816655494537</v>
+        <v>0.12381846898714355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B9" s="0">
-        <v>106.99603155650857</v>
+        <v>1376.2569569771908</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B10" s="0">
-        <v>182.59958917768233</v>
+        <v>2355.6239595697616</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B11" s="0">
-        <v>289.5956207341909</v>
+        <v>3731.8809165469524</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B12" s="0">
-        <v>-1109.8625256436046</v>
+        <v>-10017.061112246571</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,280 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -228,7 +501,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -241,17 +514,31 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,98 +557,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="B2" s="0">
-        <v>3.2362949419651139</v>
+        <v>1.1152701541865935</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="B3" s="0">
-        <v>2.9570896980973465</v>
+        <v>2.0231294573338769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0">
-        <v>0.1482498441928094</v>
+        <v>0.094202873051356439</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="B5" s="0">
-        <v>0.022401217368449453</v>
+        <v>0.023841963758342563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0041659189367960038</v>
+        <v>0.0030003210882545068</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.067057604630576972</v>
+        <v>-0.028099905067828779</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="B8" s="0">
-        <v>0.12381846898714355</v>
+        <v>0.08796459971754822</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="B9" s="0">
-        <v>1376.2569569771908</v>
+        <v>122.22216383932603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="B10" s="0">
-        <v>2355.6239595697616</v>
+        <v>181.60165337498654</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="B11" s="0">
-        <v>3731.8809165469524</v>
+        <v>303.82381721431256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="B12" s="0">
-        <v>-10017.061112246571</v>
+        <v>-1478.0495106376327</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -306,7 +384,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -321,11 +399,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -334,6 +414,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,98 +434,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B2" s="0">
-        <v>1.3862888866800496</v>
+        <v>1.3242287619200155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B3" s="0">
-        <v>1.6571150096556575</v>
+        <v>1.9328435945572122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14102100588784708</v>
+        <v>0.12449290233737756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B5" s="0">
-        <v>0.025484357871745741</v>
+        <v>0.017844184313782249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0026507541994060927</v>
+        <v>0.0021648934414789166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.06252473349600296</v>
+        <v>-0.055743198841107899</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B8" s="0">
-        <v>0.12735073835589494</v>
+        <v>0.057179736644362267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B9" s="0">
-        <v>537.58822744957058</v>
+        <v>608.92361092341184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B10" s="0">
-        <v>901.4230396377252</v>
+        <v>991.38088784525257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B11" s="0">
-        <v>1439.0112670872959</v>
+        <v>1600.3044987686644</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="B12" s="0">
-        <v>-5830.5570723954943</v>
+        <v>-4301.8788896429369</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -384,7 +462,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -401,11 +479,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -416,6 +496,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,98 +516,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B2" s="0">
-        <v>1.3242287619200155</v>
+        <v>3.9735352876788035</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B3" s="0">
-        <v>1.9328435945572122</v>
+        <v>3.0767446161467134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B4" s="0">
-        <v>0.12449290233737756</v>
+        <v>0.39310135363299786</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B5" s="0">
-        <v>0.017844184313782249</v>
+        <v>0.027393224580283308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0021648934414789166</v>
+        <v>0.0052997748870381722</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.055743198841107899</v>
+        <v>-0.079037200312827571</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0">
-        <v>0.057179736644362267</v>
+        <v>0.19070635847323736</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B9" s="0">
-        <v>608.92361092341184</v>
+        <v>4532.5495456346707</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B10" s="0">
-        <v>991.38088784525257</v>
+        <v>7542.5247828819911</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B11" s="0">
-        <v>1600.3044987686644</v>
+        <v>12075.074328516661</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B12" s="0">
-        <v>-4301.8788896429369</v>
+        <v>-49476.295404384138</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -462,7 +501,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -481,11 +520,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -498,6 +538,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,98 +557,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B2" s="0">
-        <v>3.9735352876788035</v>
+        <v>1.5610719639436195</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B3" s="0">
-        <v>3.0767446161467134</v>
+        <v>2.7233848367532518</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0">
-        <v>0.39310135363299786</v>
+        <v>0.31399425213567017</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B5" s="0">
-        <v>0.027393224580283308</v>
+        <v>0.023332392759602007</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0052997748870381722</v>
+        <v>0.0039861246992327123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.079037200312827571</v>
+        <v>-0.073766880188120165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B8" s="0">
-        <v>0.19070635847323736</v>
+        <v>0.086262746292927295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B9" s="0">
-        <v>4532.5495456346707</v>
+        <v>702.35545182996839</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B10" s="0">
-        <v>7542.5247828819911</v>
+        <v>1148.3058806481183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B11" s="0">
-        <v>12075.074328516661</v>
+        <v>1850.6613324780867</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B12" s="0">
-        <v>-49476.295404384138</v>
+        <v>-5999.6493224286478</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -306,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -321,11 +360,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -334,6 +374,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,98 +393,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B2" s="0">
-        <v>1.3862888866800496</v>
+        <v>1.0692374956120112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B3" s="0">
-        <v>1.6571150096556575</v>
+        <v>0.89686418098796916</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14102100588784708</v>
+        <v>0.16100676088094446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B5" s="0">
-        <v>0.025484357871745741</v>
+        <v>0.025566476978710107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0026507541994060927</v>
+        <v>0.0014323451331955653</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.06252473349600296</v>
+        <v>-0.041996989531158158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B8" s="0">
-        <v>0.12735073835589494</v>
+        <v>0.08989750831354959</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B9" s="0">
-        <v>537.58822744957058</v>
+        <v>201.64666263687405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B10" s="0">
-        <v>901.4230396377252</v>
+        <v>328.40235630369983</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B11" s="0">
-        <v>1439.0112670872959</v>
+        <v>530.04901894057389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B12" s="0">
-        <v>-5830.5570723954943</v>
+        <v>-2576.199985497055</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -345,7 +384,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -361,11 +400,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -375,6 +415,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,98 +434,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B2" s="0">
-        <v>1.0692374956120112</v>
+        <v>1.0298987254326946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B3" s="0">
-        <v>0.89686418098796916</v>
+        <v>3.264215459527549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B4" s="0">
-        <v>0.16100676088094446</v>
+        <v>0.036488489045354427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B5" s="0">
-        <v>0.025566476978710107</v>
+        <v>0.015683796208007656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0014323451331955653</v>
+        <v>0.0030595037663230019</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.041996989531158158</v>
+        <v>-0.014065555449886413</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B8" s="0">
-        <v>0.08989750831354959</v>
+        <v>0.038719885561547374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B9" s="0">
-        <v>201.64666263687405</v>
+        <v>57.045550169481274</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B10" s="0">
-        <v>328.40235630369983</v>
+        <v>74.066523547339727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B11" s="0">
-        <v>530.04901894057389</v>
+        <v>131.11207371682099</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B12" s="0">
-        <v>-2576.199985497055</v>
+        <v>-245.62435072295131</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -345,7 +384,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -361,11 +400,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -375,6 +415,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,104 +428,104 @@
   <dimension ref="A1:B12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.48828125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.85546875" customWidth="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B2" s="0">
-        <v>1.0692374956120112</v>
+        <v>0.73954056129972245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B3" s="0">
-        <v>0.89686418098796916</v>
+        <v>-1.8513918578651369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B4" s="0">
-        <v>0.16100676088094446</v>
+        <v>0.34775491135938774</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B5" s="0">
-        <v>0.025566476978710107</v>
+        <v>0.01993905114239056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0014323451331955653</v>
+        <v>-0.0023157166808501078</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.041996989531158158</v>
+        <v>-0.063279070022676187</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B8" s="0">
-        <v>0.08989750831354959</v>
+        <v>0.0796196969180758</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B9" s="0">
-        <v>201.64666263687405</v>
+        <v>376.78862581529336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B10" s="0">
-        <v>328.40235630369983</v>
+        <v>604.28944604931462</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B11" s="0">
-        <v>530.04901894057389</v>
+        <v>981.07807186460798</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B12" s="0">
-        <v>-2576.199985497055</v>
+        <v>-3030.3009156319918</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -384,7 +423,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -401,11 +440,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -416,6 +456,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,103 +470,103 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.48828125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B2" s="0">
-        <v>1.0298987254326946</v>
+        <v>0.89381524628419107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B3" s="0">
-        <v>3.264215459527549</v>
+        <v>-4.1846484220222679</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B4" s="0">
-        <v>0.036488489045354427</v>
+        <v>0.19030071954380082</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B5" s="0">
-        <v>0.015683796208007656</v>
+        <v>0.020966602940848941</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0030595037663230019</v>
+        <v>-0.0053870198906526999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.014065555449886413</v>
+        <v>-0.042981934856188952</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B8" s="0">
-        <v>0.038719885561547374</v>
+        <v>0.035019706211270263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B9" s="0">
-        <v>57.045550169481274</v>
+        <v>79.624036950437528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B10" s="0">
-        <v>74.066523547339727</v>
+        <v>107.89205707228004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B11" s="0">
-        <v>131.11207371682099</v>
+        <v>187.51609402271757</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B12" s="0">
-        <v>-245.62435072295131</v>
+        <v>-1007.6935034035786</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -501,7 +540,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -521,11 +560,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -539,6 +579,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,103 +593,103 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.48828125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B2" s="0">
-        <v>1.5610719639436195</v>
+        <v>0.96427197549738308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B3" s="0">
-        <v>2.7233848367532518</v>
+        <v>-1.9590233989160732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B4" s="0">
-        <v>0.31399425213567017</v>
+        <v>0.071234396691973415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B5" s="0">
-        <v>0.023332392759602007</v>
+        <v>0.014300494090984207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0039861246992327123</v>
+        <v>-0.0017200940692326083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.073766880188120165</v>
+        <v>-0.027419094402602262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B8" s="0">
-        <v>0.086262746292927295</v>
+        <v>0.027631101568018179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B9" s="0">
-        <v>702.35545182996839</v>
+        <v>44.381144633903929</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B10" s="0">
-        <v>1148.3058806481183</v>
+        <v>50.600490035264592</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B11" s="0">
-        <v>1850.6613324780867</v>
+        <v>94.981634669168528</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B12" s="0">
-        <v>-5999.6493224286478</v>
+        <v>-208.55257850381594</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -384,7 +423,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -401,11 +440,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -416,6 +456,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,104 +469,104 @@
   <dimension ref="A1:B12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.48828125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.85546875" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B2" s="0">
-        <v>1.0298987254326946</v>
+        <v>1.0853659554408075</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B3" s="0">
-        <v>3.264215459527549</v>
+        <v>0.68857264463525281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B4" s="0">
-        <v>0.036488489045354427</v>
+        <v>0.21876661600142572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B5" s="0">
-        <v>0.015683796208007656</v>
+        <v>0.020668968374006093</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0030595037663230019</v>
+        <v>0.00089279377448160018</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.014065555449886413</v>
+        <v>-0.041990668616064486</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B8" s="0">
-        <v>0.038719885561547374</v>
+        <v>0.084511395545860957</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B9" s="0">
-        <v>57.045550169481274</v>
+        <v>700.71743203234564</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B10" s="0">
-        <v>74.066523547339727</v>
+        <v>1146.1546496766252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B11" s="0">
-        <v>131.11207371682099</v>
+        <v>1846.8720817089709</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B12" s="0">
-        <v>-245.62435072295131</v>
+        <v>-6217.3699570900335</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -540,7 +579,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -561,11 +600,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -580,6 +620,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,104 +633,104 @@
   <dimension ref="A1:B12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.48828125" customWidth="true"/>
-    <col min="2" max="2" width="15.37890625" customWidth="true"/>
+    <col min="1" max="1" width="15.85546875" customWidth="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B2" s="0">
-        <v>0.96427197549738308</v>
+        <v>4.3679187685411174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0">
-        <v>-1.9590233989160732</v>
+        <v>4.3595638567428221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B4" s="0">
-        <v>0.071234396691973415</v>
+        <v>0.15459181456333015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B5" s="0">
-        <v>0.014300494090984207</v>
+        <v>0.023465376081668814</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.0017200940692326083</v>
+        <v>0.0064307795449199713</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.027419094402602262</v>
+        <v>-0.059354809751012261</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B8" s="0">
-        <v>0.027631101568018179</v>
+        <v>0.10859648044373316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B9" s="0">
-        <v>44.381144633903929</v>
+        <v>2343.2343669882175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B10" s="0">
-        <v>50.600490035264592</v>
+        <v>3950.9413085310566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B11" s="0">
-        <v>94.981634669168528</v>
+        <v>6294.1756755192746</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B12" s="0">
-        <v>-208.55257850381594</v>
+        <v>-22866.672551565691</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -579,7 +618,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -601,11 +640,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -621,6 +661,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,98 +680,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B2" s="0">
-        <v>4.3679187685411174</v>
+        <v>2.4565117629636761</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B3" s="0">
-        <v>4.3595638567428221</v>
+        <v>2.0366297855801685</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B4" s="0">
-        <v>0.15459181456333015</v>
+        <v>0.29279200640584852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B5" s="0">
-        <v>0.023465376081668814</v>
+        <v>0.024164447993577906</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0064307795449199713</v>
+        <v>0.0030953449297868195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.059354809751012261</v>
+        <v>-0.071300491296251378</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B8" s="0">
-        <v>0.10859648044373316</v>
+        <v>0.17469061750242454</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B9" s="0">
-        <v>2343.2343669882175</v>
+        <v>2930.6462368499651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B10" s="0">
-        <v>3950.9413085310566</v>
+        <v>4864.5333054370421</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B11" s="0">
-        <v>6294.1756755192746</v>
+        <v>7795.1795422870073</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B12" s="0">
-        <v>-22866.672551565691</v>
+        <v>-29492.789022141944</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -618,7 +657,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -641,11 +680,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -662,6 +702,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,98 +721,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B2" s="0">
-        <v>2.4565117629636761</v>
+        <v>0.97068932831241073</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B3" s="0">
-        <v>2.0366297855801685</v>
+        <v>-2.0977893948705888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29279200640584852</v>
+        <v>0.062681441414427427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B5" s="0">
-        <v>0.024164447993577906</v>
+        <v>0.011083007350826101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0030953449297868195</v>
+        <v>-0.0014275161789813139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.071300491296251378</v>
+        <v>-0.030942055670359014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B8" s="0">
-        <v>0.17469061750242454</v>
+        <v>0.013436921695406667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B9" s="0">
-        <v>2930.6462368499651</v>
+        <v>91.568106523546021</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B10" s="0">
-        <v>4864.5333054370421</v>
+        <v>127.80751695279679</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B11" s="0">
-        <v>7795.1795422870073</v>
+        <v>219.37562347634281</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B12" s="0">
-        <v>-29492.789022141944</v>
+        <v>-62.906144441608312</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -501,7 +540,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -521,11 +560,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -539,6 +579,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,98 +598,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B2" s="0">
-        <v>1.5610719639436195</v>
+        <v>2.5381629488470758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B3" s="0">
-        <v>2.7233848367532518</v>
+        <v>3.4116536835845541</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B4" s="0">
-        <v>0.31399425213567017</v>
+        <v>0.15635537970488222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B5" s="0">
-        <v>0.023332392759602007</v>
+        <v>0.018952979709196155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0039861246992327123</v>
+        <v>0.0040647655060191464</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.073766880188120165</v>
+        <v>-0.046762149466849978</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B8" s="0">
-        <v>0.086262746292927295</v>
+        <v>0.071902014131398628</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B9" s="0">
-        <v>702.35545182996839</v>
+        <v>1970.7256604153647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B10" s="0">
-        <v>1148.3058806481183</v>
+        <v>3287.7503806197178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B11" s="0">
-        <v>1850.6613324780867</v>
+        <v>5258.4760410350827</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B12" s="0">
-        <v>-5999.6493224286478</v>
+        <v>-17681.904355844439</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -540,7 +579,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -561,11 +600,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -580,6 +620,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,103 +634,103 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.48828125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B2" s="0">
-        <v>2.5381629488470758</v>
+        <v>0.98664771241830063</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0">
-        <v>3.4116536835845541</v>
+        <v>-3.6418618720013041</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B4" s="0">
-        <v>0.15635537970488222</v>
+        <v>0.01335228758169942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B5" s="0">
-        <v>0.018952979709196155</v>
+        <v>0.0029856622687806076</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0040647655060191464</v>
+        <v>-0.00066761437908496868</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.046762149466849978</v>
+        <v>-0.013352287581699374</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B8" s="0">
-        <v>0.071902014131398628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B9" s="0">
-        <v>1970.7256604153647</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B10" s="0">
-        <v>3287.7503806197178</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B11" s="0">
-        <v>5258.4760410350827</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B12" s="0">
-        <v>-17681.904355844439</v>
+        <v>-26.1045751633986</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -657,7 +735,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -681,11 +759,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -703,6 +783,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,98 +803,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B2" s="0">
-        <v>0.97068932831241073</v>
+        <v>5.0730122353086857</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="B3" s="0">
-        <v>-2.0977893948705888</v>
+        <v>4.155296257982438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B4" s="0">
-        <v>0.062681441414427427</v>
+        <v>0.13990011369514901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B5" s="0">
-        <v>0.011083007350826101</v>
+        <v>0.02023604270184769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.0014275161789813139</v>
+        <v>0.0052886845290279951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.030942055670359014</v>
+        <v>-0.045161581458437627</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B8" s="0">
-        <v>0.013436921695406667</v>
+        <v>0.099658592927732492</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="B9" s="0">
-        <v>91.568106523546021</v>
+        <v>3752.7582594782475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="B10" s="0">
-        <v>127.80751695279679</v>
+        <v>6236.9346049363194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="B11" s="0">
-        <v>219.37562347634281</v>
+        <v>9989.6928644145664</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="B12" s="0">
-        <v>-62.906144441608312</v>
+        <v>-18724.78152240799</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -735,7 +774,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -761,11 +800,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -785,6 +825,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,98 +844,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B2" s="0">
-        <v>5.0730122353086857</v>
+        <v>2.0303858430306634</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="B3" s="0">
-        <v>4.155296257982438</v>
+        <v>3.3402863583984379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B4" s="0">
-        <v>0.13990011369514901</v>
+        <v>0.10583129390440052</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B5" s="0">
-        <v>0.02023604270184769</v>
+        <v>0.014571803898832914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0052886845290279951</v>
+        <v>0.0030597791236956291</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.045161581458437627</v>
+        <v>-0.033365906881158702</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B8" s="0">
-        <v>0.099658592927732492</v>
+        <v>0.061462694157277342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="B9" s="0">
-        <v>3752.7582594782475</v>
+        <v>1390.4668562062545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B10" s="0">
-        <v>6236.9346049363194</v>
+        <v>2296.3739882314158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="B11" s="0">
-        <v>9989.6928644145664</v>
+        <v>3686.8408444376701</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B12" s="0">
-        <v>-18724.78152240799</v>
+        <v>-4661.2441401307815</v>
       </c>
     </row>
   </sheetData>

--- a/DataOutput/SummaryTable.xlsx
+++ b/DataOutput/SummaryTable.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+  <si>
+    <t>MetricsName</t>
+  </si>
+  <si>
+    <t>TotalReturn</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>MaxDrawdown</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>AverageDailyRet</t>
+  </si>
+  <si>
+    <t>MinDailyRet</t>
+  </si>
+  <si>
+    <t>MaxDailyRet</t>
+  </si>
+  <si>
+    <t>totalBuyCost</t>
+  </si>
+  <si>
+    <t>totalSellCost</t>
+  </si>
+  <si>
+    <t>totalBuySellCost</t>
+  </si>
+  <si>
+    <t>totalSlippageCost</t>
+  </si>
+  <si>
+    <t>PortfolioMetrics</t>
+  </si>
   <si>
     <t>MetricsName</t>
   </si>
@@ -774,7 +813,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -801,11 +840,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -826,6 +866,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,98 +885,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B2" s="0">
-        <v>2.0303858430306634</v>
+        <v>1.5907074750307155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="B3" s="0">
-        <v>3.3402863583984379</v>
+        <v>2.3447936189484593</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B4" s="0">
-        <v>0.10583129390440052</v>
+        <v>0.14265609492577211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B5" s="0">
-        <v>0.014571803898832914</v>
+        <v>0.013767883666961531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0030597791236956291</v>
+        <v>0.0020293869836210173</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.033365906881158702</v>
+        <v>-0.038722361810972994</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B8" s="0">
-        <v>0.061462694157277342</v>
+        <v>0.056100662687841085</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B9" s="0">
-        <v>1390.4668562062545</v>
+        <v>1281.5423065883804</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B10" s="0">
-        <v>2296.3739882314158</v>
+        <v>2114.2903275242943</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B11" s="0">
-        <v>3686.8408444376701</v>
+        <v>3395.8326341126749</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B12" s="0">
-        <v>-4661.2441401307815</v>
+        <v>-3838.2118858430149</v>
       </c>
     </row>
   </sheetData>
